--- a/상품정보 통합.xlsx
+++ b/상품정보 통합.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DU\Desktop\msaproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DU\Desktop\msaproject\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="기본 상품 정보" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="260">
   <si>
     <t>메뉴 코드</t>
   </si>
@@ -775,9 +775,6 @@
     <t>제로사이다변경</t>
   </si>
   <si>
-    <t>["사이다","제로사이다"]</t>
-  </si>
-  <si>
     <t>변경</t>
   </si>
   <si>
@@ -812,10 +809,6 @@
   <si>
     <t>사이다</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>changing_material</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>재료명</t>
@@ -1179,6 +1172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1274,6 +1268,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1311,6 +1306,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, </t>
@@ -1356,6 +1352,15 @@
       <t>)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_material</t>
+  </si>
+  <si>
+    <t>to_material</t>
+  </si>
+  <si>
+    <t>제로사이다</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1677,6 +1682,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1898,7 +1906,7 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
@@ -1927,7 +1935,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -2195,7 +2203,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>144</v>
@@ -2467,7 +2475,7 @@
         <v>103</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>124</v>
@@ -3419,10 +3427,10 @@
         <v>200</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3443,16 +3451,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3490,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>55</v>
@@ -3500,7 +3508,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="5">
         <v>500</v>
@@ -3590,7 +3598,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D7" s="5">
         <v>480</v>
@@ -3698,7 +3706,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="5">
         <v>450</v>
@@ -3806,7 +3814,7 @@
         <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D19" s="5">
         <v>450</v>
@@ -3914,7 +3922,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D25" s="5">
         <v>700</v>
@@ -3968,7 +3976,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
@@ -4526,7 +4534,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D59" s="15">
         <v>150</v>
@@ -4634,7 +4642,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D65" s="15">
         <v>120</v>
@@ -4652,7 +4660,7 @@
         <v>70</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D66" s="15">
         <v>80</v>
@@ -4724,7 +4732,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D70" s="15">
         <v>100</v>
@@ -4742,7 +4750,7 @@
         <v>172</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D71" s="15">
         <v>60</v>
@@ -4850,7 +4858,7 @@
         <v>57</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D77" s="15">
         <v>150</v>
@@ -4940,7 +4948,7 @@
         <v>57</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="15">
         <v>120</v>
@@ -5030,7 +5038,7 @@
         <v>57</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" s="16">
         <v>200</v>
@@ -5048,7 +5056,7 @@
         <v>70</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D88" s="16">
         <v>80</v>
@@ -5120,7 +5128,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D92" s="16">
         <v>200</v>
@@ -5138,7 +5146,7 @@
         <v>70</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D93" s="16">
         <v>70</v>
@@ -5228,7 +5236,7 @@
         <v>70</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D98" s="16">
         <v>60</v>
@@ -5300,7 +5308,7 @@
         <v>57</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D102" s="16">
         <v>180</v>
@@ -5318,7 +5326,7 @@
         <v>70</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D103" s="16">
         <v>70</v>
@@ -5390,7 +5398,7 @@
         <v>57</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D107" s="16">
         <v>200</v>
@@ -5408,7 +5416,7 @@
         <v>70</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" s="16">
         <v>80</v>
@@ -5480,7 +5488,7 @@
         <v>57</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D112" s="17">
         <v>120</v>
@@ -5516,7 +5524,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D114" s="17">
         <v>60</v>
@@ -5588,7 +5596,7 @@
         <v>57</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118" s="17">
         <v>200</v>
@@ -5678,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D123" s="17">
         <v>120</v>
@@ -5696,7 +5704,7 @@
         <v>70</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D124" s="17">
         <v>80</v>
@@ -5768,7 +5776,7 @@
         <v>57</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D128" s="17">
         <v>120</v>
@@ -5786,7 +5794,7 @@
         <v>70</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D129" s="17">
         <v>80</v>
@@ -5858,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D133" s="17">
         <v>200</v>
@@ -5876,7 +5884,7 @@
         <v>173</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D134" s="17">
         <v>90</v>
@@ -5962,13 +5970,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A1" s="37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>56</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" thickBot="1">
@@ -5984,7 +5992,7 @@
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1">
       <c r="A3" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>67</v>
@@ -6039,7 +6047,7 @@
     </row>
     <row r="8" spans="1:3" ht="13.5" thickBot="1">
       <c r="A8" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" s="38" t="s">
         <v>58</v>
@@ -6116,7 +6124,7 @@
     </row>
     <row r="15" spans="1:3" ht="13.5" thickBot="1">
       <c r="A15" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B15" s="38" t="s">
         <v>64</v>
@@ -6138,7 +6146,7 @@
     </row>
     <row r="17" spans="1:3" ht="13.5" thickBot="1">
       <c r="A17" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>64</v>
@@ -6149,7 +6157,7 @@
     </row>
     <row r="18" spans="1:3" ht="13.5" thickBot="1">
       <c r="A18" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B18" s="38" t="s">
         <v>58</v>
@@ -6237,7 +6245,7 @@
     </row>
     <row r="26" spans="1:3" ht="13.5" thickBot="1">
       <c r="A26" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" s="38" t="s">
         <v>64</v>
@@ -6248,7 +6256,7 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" thickBot="1">
       <c r="A27" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B27" s="38" t="s">
         <v>64</v>
@@ -6270,7 +6278,7 @@
     </row>
     <row r="29" spans="1:3" ht="13.5" thickBot="1">
       <c r="A29" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="38" t="s">
         <v>58</v>
@@ -6281,7 +6289,7 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" thickBot="1">
       <c r="A30" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B30" s="38" t="s">
         <v>64</v>
@@ -6314,7 +6322,7 @@
     </row>
     <row r="33" spans="1:3" ht="13.5" thickBot="1">
       <c r="A33" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>64</v>
@@ -6325,7 +6333,7 @@
     </row>
     <row r="34" spans="1:3" ht="13.5" thickBot="1">
       <c r="A34" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>64</v>
@@ -6336,7 +6344,7 @@
     </row>
     <row r="35" spans="1:3" ht="13.5" thickBot="1">
       <c r="A35" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>64</v>
@@ -6358,7 +6366,7 @@
     </row>
     <row r="37" spans="1:3" ht="13.5" thickBot="1">
       <c r="A37" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B37" s="38" t="s">
         <v>64</v>
@@ -6391,7 +6399,7 @@
     </row>
     <row r="40" spans="1:3" ht="13.5" thickBot="1">
       <c r="A40" s="38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>64</v>
@@ -6408,38 +6416,41 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" thickBot="1">
+    <row r="1" spans="1:8" ht="39" thickBot="1">
       <c r="A1" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>202</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1">
+    <row r="2" spans="1:8" ht="26.25" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>78</v>
       </c>
@@ -6452,17 +6463,18 @@
       <c r="D2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="21">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1">
+    <row r="3" spans="1:8" ht="26.25" thickBot="1">
       <c r="A3" s="21" t="s">
         <v>81</v>
       </c>
@@ -6472,20 +6484,21 @@
       <c r="C3" s="21">
         <v>600</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="21">
+      <c r="F3" s="21">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" thickBot="1">
+    <row r="4" spans="1:8" ht="26.25" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>81</v>
       </c>
@@ -6495,20 +6508,21 @@
       <c r="C4" s="21">
         <v>1200</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="21">
+      <c r="F4" s="21">
         <v>18</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39" thickBot="1">
+    <row r="5" spans="1:8" ht="39" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>81</v>
       </c>
@@ -6518,20 +6532,21 @@
       <c r="C5" s="21">
         <v>1000</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="21">
         <v>9</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G5" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="39" thickBot="1">
+    <row r="6" spans="1:8" ht="39" thickBot="1">
       <c r="A6" s="21" t="s">
         <v>81</v>
       </c>
@@ -6541,20 +6556,21 @@
       <c r="C6" s="21">
         <v>2000</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="21">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39" thickBot="1">
+    <row r="7" spans="1:8" ht="39" thickBot="1">
       <c r="A7" s="21" t="s">
         <v>86</v>
       </c>
@@ -6564,20 +6580,21 @@
       <c r="C7" s="21">
         <v>500</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="21">
         <v>20</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G7" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39" thickBot="1">
+    <row r="8" spans="1:8" ht="39" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>86</v>
       </c>
@@ -6587,20 +6604,21 @@
       <c r="C8" s="21">
         <v>500</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="21">
         <v>20</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39" thickBot="1">
+    <row r="9" spans="1:8" ht="39" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>86</v>
       </c>
@@ -6610,20 +6628,21 @@
       <c r="C9" s="21">
         <v>500</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="21">
+      <c r="F9" s="21">
         <v>20</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1">
+    <row r="10" spans="1:8" ht="26.25" thickBot="1">
       <c r="A10" s="21" t="s">
         <v>86</v>
       </c>
@@ -6633,20 +6652,21 @@
       <c r="C10" s="21">
         <v>500</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="21">
+      <c r="F10" s="21">
         <v>20</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="39" thickBot="1">
+    <row r="11" spans="1:8" ht="39" thickBot="1">
       <c r="A11" s="21" t="s">
         <v>86</v>
       </c>
@@ -6656,20 +6676,21 @@
       <c r="C11" s="21">
         <v>500</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="E11" s="21">
+      <c r="F11" s="21">
         <v>20</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" thickBot="1">
+    <row r="12" spans="1:8" ht="13.5" thickBot="1">
       <c r="A12" s="21" t="s">
         <v>86</v>
       </c>
@@ -6679,20 +6700,21 @@
       <c r="C12" s="21">
         <v>0</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="21">
-        <v>0</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>11</v>
+      <c r="F12" s="21">
+        <v>0</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" thickBot="1">
+      <c r="H12" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" thickBot="1">
       <c r="A13" s="21" t="s">
         <v>91</v>
       </c>
@@ -6702,20 +6724,21 @@
       <c r="C13" s="21">
         <v>500</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="21">
+      <c r="F13" s="21">
         <v>40</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="39" thickBot="1">
+    <row r="14" spans="1:8" ht="39" thickBot="1">
       <c r="A14" s="21" t="s">
         <v>91</v>
       </c>
@@ -6725,20 +6748,21 @@
       <c r="C14" s="21">
         <v>700</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="21">
+      <c r="F14" s="21">
         <v>50</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="G14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="39" thickBot="1">
+    <row r="15" spans="1:8" ht="26.25" thickBot="1">
       <c r="A15" s="21" t="s">
         <v>211</v>
       </c>
@@ -6748,21 +6772,25 @@
       <c r="C15" s="21">
         <v>0</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="21">
+        <v>200</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>212</v>
-      </c>
-      <c r="E15" s="21">
-        <v>200</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>